--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1165975.699897825</v>
+        <v>1209596.788444327</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13321523.02504341</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2370479.640547425</v>
+        <v>698313.6830760725</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7201585.811363712</v>
+        <v>7779755.328291051</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>341.8278835301723</v>
       </c>
       <c r="D2" t="n">
-        <v>220.3560188701921</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +819,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170407</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -865,16 +867,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>115.1055716303395</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -899,19 +901,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>371.7352935808472</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>49.49512077555119</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>146.7855775533103</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1105,13 +1107,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>111.2179984129572</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>39.36562499212323</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>266.6249883215526</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1300,10 +1302,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>120.0693374786931</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>154.5259717924264</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>336.8776993222966</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>348.2930417606536</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1385,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>292.0458823453814</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1619,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>292.3236405495149</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1673,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1777,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>97.96399958400306</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2002,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2011,7 +2013,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>11.12043047005107</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>119.6878865881506</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2138,7 +2140,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250128</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2257,7 +2259,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>260.4446813871633</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>106.858786719141</v>
       </c>
     </row>
     <row r="23">
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>218.7757544134941</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2612,7 +2614,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250128</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -2719,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="F28" t="n">
-        <v>165.8853901136355</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2770,7 +2772,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2950,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>103.8603782851912</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>60.5137936271373</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3202,10 +3204,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>125.4203831793925</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>96.18008851982863</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>55.47301062167563</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>146.7373013332753</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088821</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3803,10 +3805,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>381.7415222236082</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3910,7 +3912,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -3946,7 +3948,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0.8056189209976128</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>218.7757544134943</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3983,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.89949249262364</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>266.9206601079982</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4135,22 +4137,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170407</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1545.380572311455</v>
+        <v>487.2469754669709</v>
       </c>
       <c r="C2" t="n">
-        <v>1522.520246365159</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D2" t="n">
-        <v>1299.938409122541</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E2" t="n">
-        <v>873.9614692703988</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F2" t="n">
-        <v>448.8372874597989</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L2" t="n">
-        <v>1508.432753835019</v>
+        <v>455.358312627159</v>
       </c>
       <c r="M2" t="n">
-        <v>1768.825772958194</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N2" t="n">
-        <v>1768.825772958194</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O2" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U2" t="n">
-        <v>1966.556343058789</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V2" t="n">
-        <v>1966.556343058789</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="W2" t="n">
-        <v>1570.164993359136</v>
+        <v>1724.152608635863</v>
       </c>
       <c r="X2" t="n">
-        <v>1562.485398567287</v>
+        <v>1312.432609803611</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.188532562581</v>
+        <v>907.0953397585009</v>
       </c>
     </row>
     <row r="3">
@@ -4395,34 +4397,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M3" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N3" t="n">
-        <v>669.8354755761777</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="O3" t="n">
-        <v>1220.501010560616</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P3" t="n">
         <v>1771.166545545054</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989117</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.87263914955</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T4" t="n">
-        <v>2177.87263914955</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U4" t="n">
-        <v>2177.87263914955</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V4" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109774</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.70660578326</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C5" t="n">
-        <v>1174.80587579656</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D5" t="n">
-        <v>751.5132549815605</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E5" t="n">
-        <v>376.0230594453512</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F5" t="n">
-        <v>354.9392816751555</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>354.6406233050082</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H5" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I5" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>419.3757035959385</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K5" t="n">
-        <v>1121.932232736596</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L5" t="n">
-        <v>1824.488761877254</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M5" t="n">
-        <v>2018.499374929592</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="N5" t="n">
-        <v>2018.499374929592</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="O5" t="n">
-        <v>2018.499374929592</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P5" t="n">
-        <v>2721.05590407025</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q5" t="n">
-        <v>2721.05590407025</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R5" t="n">
-        <v>2838.612238952152</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2838.612238952152</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>2838.612238952152</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>2838.612238952152</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V5" t="n">
-        <v>2838.612238952152</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W5" t="n">
-        <v>2838.612238952152</v>
+        <v>2174.91618097192</v>
       </c>
       <c r="X5" t="n">
-        <v>2426.8922401199</v>
+        <v>2167.236586180072</v>
       </c>
       <c r="Y5" t="n">
-        <v>2021.55497007479</v>
+        <v>2165.939720175366</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>623.8957358104983</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>506.3898323280031</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>402.5498738432881</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>297.8479401162253</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>204.2021097991295</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>110.1483380167335</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H6" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>64.21888774095488</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>335.916377020546</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>335.916377020546</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>1038.472906161204</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M6" t="n">
-        <v>1741.029435301862</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="N6" t="n">
-        <v>1865.459875359553</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="O6" t="n">
-        <v>1865.459875359553</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="P6" t="n">
-        <v>1865.459875359553</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1865.459875359553</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1865.459875359553</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1784.135627920807</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1642.255692218486</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1457.487496138122</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1252.514357277388</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1055.992980110606</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>892.5156338772687</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>752.8227452305611</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>973.7451614561335</v>
+        <v>310.474999156118</v>
       </c>
       <c r="C7" t="n">
-        <v>801.7725983350495</v>
+        <v>310.474999156118</v>
       </c>
       <c r="D7" t="n">
-        <v>638.4558254618202</v>
+        <v>310.474999156118</v>
       </c>
       <c r="E7" t="n">
-        <v>638.4558254618202</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F7" t="n">
-        <v>466.5940512363806</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>300.3370815306127</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>156.5408130387671</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
-        <v>114.2635730032011</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>340.7911742090382</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>695.480495503459</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1086.66629047371</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1464.157801349746</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1819.585930029509</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2110.18514195141</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2237.185272192171</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2190.146658879345</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2020.01161139848</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2020.01161139848</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1907.670198860139</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1907.670198860139</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1632.817795032652</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1390.253898478457</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.911130168199</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.70660578326</v>
+        <v>2095.759537287836</v>
       </c>
       <c r="C8" t="n">
-        <v>1174.80587579656</v>
+        <v>2055.996279720035</v>
       </c>
       <c r="D8" t="n">
-        <v>751.5132549815605</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E8" t="n">
-        <v>482.1950849597902</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F8" t="n">
-        <v>57.07090314919036</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>56.77224477904305</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>56.77224477904305</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>419.3757035959385</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K8" t="n">
-        <v>419.3757035959385</v>
+        <v>549.9383681074142</v>
       </c>
       <c r="L8" t="n">
-        <v>1121.932232736596</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="M8" t="n">
-        <v>1824.488761877254</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N8" t="n">
-        <v>2527.045291017912</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="O8" t="n">
-        <v>2721.05590407025</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P8" t="n">
-        <v>2721.05590407025</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q8" t="n">
-        <v>2721.05590407025</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R8" t="n">
-        <v>2838.612238952152</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2838.612238952152</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T8" t="n">
-        <v>2838.612238952152</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U8" t="n">
-        <v>2838.612238952152</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V8" t="n">
-        <v>2838.612238952152</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="W8" t="n">
-        <v>2838.612238952152</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="X8" t="n">
-        <v>2426.8922401199</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y8" t="n">
-        <v>2021.55497007479</v>
+        <v>2111.567497538962</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>623.8957358104983</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>506.3898323280031</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>402.5498738432881</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>297.8479401162253</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>204.2021097991295</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>110.1483380167335</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H9" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>328.4697340586341</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K9" t="n">
-        <v>918.9546606269737</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L9" t="n">
-        <v>918.9546606269737</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M9" t="n">
-        <v>918.9546606269737</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="N9" t="n">
-        <v>1621.511189767632</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>1621.511189767632</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1865.459875359553</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1865.459875359553</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1865.459875359553</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1784.135627920807</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1642.255692218486</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1457.487496138122</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1252.514357277388</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1055.992980110606</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>892.5156338772687</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>752.8227452305611</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>558.2697866205028</v>
+        <v>839.1397001855339</v>
       </c>
       <c r="C10" t="n">
-        <v>386.2972234994188</v>
+        <v>667.1671370644499</v>
       </c>
       <c r="D10" t="n">
-        <v>222.9804506261895</v>
+        <v>503.8503641912206</v>
       </c>
       <c r="E10" t="n">
-        <v>56.77224477904305</v>
+        <v>337.6421583440741</v>
       </c>
       <c r="F10" t="n">
-        <v>56.77224477904305</v>
+        <v>165.7803841186345</v>
       </c>
       <c r="G10" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H10" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I10" t="n">
-        <v>56.77224477904305</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
-        <v>114.2635730032011</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>340.7911742090382</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>695.480495503459</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1086.66629047371</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1464.157801349746</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1819.585930029509</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2110.18514195141</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2237.185272192171</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2190.146658879345</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2020.01161139848</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>1863.924771204109</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U10" t="n">
-        <v>1583.740322704414</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="V10" t="n">
-        <v>1302.028855312443</v>
+        <v>1773.064737589539</v>
       </c>
       <c r="W10" t="n">
-        <v>1027.176451484956</v>
+        <v>1498.212333762052</v>
       </c>
       <c r="X10" t="n">
-        <v>784.6125549307608</v>
+        <v>1255.648437207858</v>
       </c>
       <c r="Y10" t="n">
-        <v>558.2697866205028</v>
+        <v>1029.3056688976</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1735.505049667336</v>
+        <v>2429.413071721396</v>
       </c>
       <c r="C11" t="n">
-        <v>1735.505049667336</v>
+        <v>2002.512341734696</v>
       </c>
       <c r="D11" t="n">
-        <v>1312.212428852337</v>
+        <v>1579.219720919696</v>
       </c>
       <c r="E11" t="n">
-        <v>886.2354890001942</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F11" t="n">
-        <v>461.1113071895944</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G11" t="n">
-        <v>56.77224477904305</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H11" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I11" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>56.77224477904305</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>759.3287739197008</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L11" t="n">
-        <v>759.3287739197008</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M11" t="n">
-        <v>759.3287739197008</v>
+        <v>2396.59155273422</v>
       </c>
       <c r="N11" t="n">
-        <v>1315.942845788934</v>
+        <v>2876.781500254681</v>
       </c>
       <c r="O11" t="n">
-        <v>2018.499374929592</v>
+        <v>3721.926150405493</v>
       </c>
       <c r="P11" t="n">
-        <v>2721.05590407025</v>
+        <v>4430.205429563421</v>
       </c>
       <c r="Q11" t="n">
-        <v>2721.05590407025</v>
+        <v>4886.290909067604</v>
       </c>
       <c r="R11" t="n">
-        <v>2838.612238952152</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="S11" t="n">
-        <v>2838.612238952152</v>
+        <v>4899.479949822647</v>
       </c>
       <c r="T11" t="n">
-        <v>2838.612238952152</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U11" t="n">
-        <v>2838.612238952152</v>
+        <v>4420.199469463691</v>
       </c>
       <c r="V11" t="n">
-        <v>2481.122824078402</v>
+        <v>4062.710054589941</v>
       </c>
       <c r="W11" t="n">
-        <v>2481.122824078402</v>
+        <v>3666.318704890288</v>
       </c>
       <c r="X11" t="n">
-        <v>2481.122824078402</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y11" t="n">
-        <v>2075.785554033293</v>
+        <v>2849.261436012926</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>623.8957358104983</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>506.3898323280031</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>402.5498738432881</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E12" t="n">
-        <v>297.8479401162253</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F12" t="n">
-        <v>204.2021097991295</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>110.1483380167335</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>460.3468170782372</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>460.3468170782372</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>1162.903346218895</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N12" t="n">
-        <v>1865.459875359553</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
-        <v>1865.459875359553</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1865.459875359553</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1865.459875359553</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1865.459875359553</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1784.135627920807</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1642.255692218486</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1457.487496138122</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1252.514357277388</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1055.992980110606</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>892.5156338772687</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>752.8227452305611</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.0172790407727</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>471.0172790407727</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>471.0172790407727</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>471.0172790407727</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>466.5940512363806</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>300.3370815306127</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>156.5408130387671</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I13" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>114.2635730032011</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K13" t="n">
-        <v>340.7911742090382</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>695.480495503459</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.66629047371</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1464.157801349746</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1819.585930029509</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2110.18514195141</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2237.185272192171</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R13" t="n">
-        <v>2190.146658879345</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S13" t="n">
-        <v>2020.01161139848</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T13" t="n">
-        <v>1776.672263624379</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="U13" t="n">
-        <v>1496.487815124684</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="V13" t="n">
-        <v>1214.776347732713</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W13" t="n">
-        <v>939.9239439052255</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X13" t="n">
-        <v>697.3600473510306</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y13" t="n">
-        <v>471.0172790407727</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1735.505049667336</v>
+        <v>2429.413071721396</v>
       </c>
       <c r="C14" t="n">
-        <v>1735.505049667336</v>
+        <v>2002.512341734696</v>
       </c>
       <c r="D14" t="n">
-        <v>1312.212428852337</v>
+        <v>1579.219720919696</v>
       </c>
       <c r="E14" t="n">
-        <v>886.2354890001942</v>
+        <v>1153.242781067554</v>
       </c>
       <c r="F14" t="n">
-        <v>461.1113071895944</v>
+        <v>728.1185992569538</v>
       </c>
       <c r="G14" t="n">
-        <v>56.77224477904305</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>56.77224477904305</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>56.77224477904305</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>759.3287739197008</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1433.499180670837</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>1433.499180670837</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>2136.055709811495</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>2838.612238952152</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P14" t="n">
-        <v>2838.612238952152</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="Q14" t="n">
-        <v>2838.612238952152</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="R14" t="n">
-        <v>2838.612238952152</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="S14" t="n">
-        <v>2838.612238952152</v>
+        <v>4899.479949822647</v>
       </c>
       <c r="T14" t="n">
-        <v>2838.612238952152</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U14" t="n">
-        <v>2838.612238952152</v>
+        <v>4420.199469463691</v>
       </c>
       <c r="V14" t="n">
-        <v>2838.612238952152</v>
+        <v>4062.710054589941</v>
       </c>
       <c r="W14" t="n">
-        <v>2442.2208892525</v>
+        <v>3666.318704890288</v>
       </c>
       <c r="X14" t="n">
-        <v>2030.500890420247</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y14" t="n">
-        <v>2030.500890420247</v>
+        <v>2849.261436012926</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>623.8957358104983</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>506.3898323280031</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>402.5498738432881</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E15" t="n">
-        <v>297.8479401162253</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F15" t="n">
-        <v>204.2021097991295</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>110.1483380167335</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>56.77224477904305</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K15" t="n">
-        <v>460.3468170782372</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L15" t="n">
-        <v>460.3468170782372</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M15" t="n">
-        <v>460.3468170782372</v>
+        <v>1427.760972134626</v>
       </c>
       <c r="N15" t="n">
-        <v>1162.903346218895</v>
+        <v>1427.760972134626</v>
       </c>
       <c r="O15" t="n">
-        <v>1162.903346218895</v>
+        <v>1427.760972134626</v>
       </c>
       <c r="P15" t="n">
-        <v>1865.459875359553</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
-        <v>1865.459875359553</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1865.459875359553</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1784.135627920807</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1642.255692218486</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1457.487496138122</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1252.514357277388</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1055.992980110606</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>892.5156338772687</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>752.8227452305611</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>829.0850957792788</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>657.1125326581948</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>493.7957597849655</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>327.5875539378191</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7257797123795</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>56.77224477904305</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>56.77224477904305</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I16" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>114.2635730032011</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K16" t="n">
-        <v>340.7911742090382</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>695.480495503459</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M16" t="n">
-        <v>1086.66629047371</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1464.157801349746</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1819.585930029509</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2110.18514195141</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2237.185272192171</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R16" t="n">
-        <v>2237.185272192171</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S16" t="n">
-        <v>2067.050224711306</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T16" t="n">
-        <v>1823.710876937206</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="U16" t="n">
-        <v>1543.526428437511</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="V16" t="n">
-        <v>1261.814961045539</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W16" t="n">
-        <v>1261.814961045539</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X16" t="n">
-        <v>1019.251064491344</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y16" t="n">
-        <v>1019.251064491344</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
@@ -5528,37 +5530,37 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5595,10 +5597,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
         <v>1021.509065974867</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>431.8276921262043</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C19" t="n">
-        <v>431.8276921262043</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D19" t="n">
-        <v>268.510919252975</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E19" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
         <v>102.3027134058285</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2271.4829827684</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1709.587066876733</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y19" t="n">
-        <v>621.99366083827</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>4025.820723818557</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3918.135197142812</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C22" t="n">
-        <v>3746.162634021728</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D22" t="n">
-        <v>3582.845861148498</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E22" t="n">
-        <v>3416.637655301352</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F22" t="n">
-        <v>3244.775881075912</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G22" t="n">
-        <v>3078.518911370144</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V22" t="n">
-        <v>4852.060234546818</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W22" t="n">
-        <v>4577.207830719331</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X22" t="n">
-        <v>4334.643934165136</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y22" t="n">
-        <v>4108.301165854878</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C24" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D24" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E24" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F24" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G24" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K24" t="n">
-        <v>692.7876399741681</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L24" t="n">
-        <v>821.6753975134684</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>4025.820723818556</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S24" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T24" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U24" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V24" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W24" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y24" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>4676.976398979054</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>4676.976398979054</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V25" t="n">
-        <v>4676.976398979054</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W25" t="n">
-        <v>4676.976398979054</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>4434.41250242486</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>4208.069734114601</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6242,19 +6244,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3440.513175819934</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C28" t="n">
-        <v>3268.54061269885</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D28" t="n">
-        <v>3268.54061269885</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E28" t="n">
-        <v>3268.54061269885</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>3100.979612584067</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>4374.43821322394</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>4374.43821322394</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>4099.585809396453</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>3857.021912842258</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y28" t="n">
-        <v>3630.679144532</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6549,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>739.6560874287652</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3835.463972718781</v>
+        <v>3205.840321740789</v>
       </c>
       <c r="C31" t="n">
-        <v>3663.491409597697</v>
+        <v>3100.930848725444</v>
       </c>
       <c r="D31" t="n">
-        <v>3500.174636724468</v>
+        <v>3100.930848725444</v>
       </c>
       <c r="E31" t="n">
-        <v>3333.966430877322</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F31" t="n">
-        <v>3162.104656651882</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G31" t="n">
-        <v>2995.847686946114</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H31" t="n">
-        <v>2995.847686946114</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P31" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S31" t="n">
-        <v>5068.0970569786</v>
+        <v>4945.000622810561</v>
       </c>
       <c r="T31" t="n">
-        <v>4824.7577092045</v>
+        <v>4701.661275036461</v>
       </c>
       <c r="U31" t="n">
-        <v>4824.7577092045</v>
+        <v>4421.476826536766</v>
       </c>
       <c r="V31" t="n">
-        <v>4543.046241812529</v>
+        <v>4139.765359144794</v>
       </c>
       <c r="W31" t="n">
-        <v>4268.193837985042</v>
+        <v>3864.912955317307</v>
       </c>
       <c r="X31" t="n">
-        <v>4025.629941430847</v>
+        <v>3622.349058763113</v>
       </c>
       <c r="Y31" t="n">
-        <v>4025.629941430847</v>
+        <v>3396.006290452855</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6789,7 +6791,7 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>3901.026184387725</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>3729.053621266641</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>3565.736848393412</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>3399.528642546265</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>3227.666868320826</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>3061.409898615058</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.542080025265</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="U34" t="n">
-        <v>2065.542080025265</v>
+        <v>4834.951221791731</v>
       </c>
       <c r="V34" t="n">
-        <v>1783.830612633294</v>
+        <v>4834.951221791731</v>
       </c>
       <c r="W34" t="n">
-        <v>1508.978208805807</v>
+        <v>4560.098817964244</v>
       </c>
       <c r="X34" t="n">
-        <v>1411.826604240323</v>
+        <v>4317.534921410049</v>
       </c>
       <c r="Y34" t="n">
-        <v>1185.483835930065</v>
+        <v>4091.192153099791</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I35" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>496.5168264363576</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>324.5442633152736</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>324.5442633152736</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>158.3360574681272</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1992.33777973203</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>1712.153331232334</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>1430.441863840363</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W37" t="n">
-        <v>1155.589460012876</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>913.0255634586812</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>686.6827951484232</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7175,28 +7177,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576507</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
         <v>5010.768376164567</v>
@@ -7254,13 +7256,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>368.3282513713204</v>
+        <v>3158.801708427963</v>
       </c>
       <c r="C40" t="n">
-        <v>368.3282513713204</v>
+        <v>2986.829145306879</v>
       </c>
       <c r="D40" t="n">
-        <v>368.3282513713204</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="E40" t="n">
-        <v>368.3282513713204</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F40" t="n">
-        <v>368.3282513713204</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y40" t="n">
-        <v>516.5477476675582</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1219.853496824231</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>1219.853496824231</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>1219.853496824231</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>793.8765569720883</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>793.8765569720883</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>389.537494561537</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>91.66911603557185</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>419.3757035959385</v>
+        <v>213.8119697868605</v>
       </c>
       <c r="K41" t="n">
-        <v>1121.932232736596</v>
+        <v>929.3202777623595</v>
       </c>
       <c r="L41" t="n">
-        <v>1121.932232736596</v>
+        <v>1858.945325381636</v>
       </c>
       <c r="M41" t="n">
-        <v>1562.413895425409</v>
+        <v>2863.231426800694</v>
       </c>
       <c r="N41" t="n">
-        <v>1562.413895425409</v>
+        <v>3839.482485287395</v>
       </c>
       <c r="O41" t="n">
-        <v>1562.413895425409</v>
+        <v>3839.482485287395</v>
       </c>
       <c r="P41" t="n">
-        <v>2264.970424566066</v>
+        <v>4547.761764445323</v>
       </c>
       <c r="Q41" t="n">
-        <v>2721.05590407025</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="R41" t="n">
-        <v>2838.612238952152</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="S41" t="n">
-        <v>2838.612238952152</v>
+        <v>4899.479949822647</v>
       </c>
       <c r="T41" t="n">
-        <v>2617.686667996786</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U41" t="n">
-        <v>2359.331758593198</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V41" t="n">
-        <v>2001.842343719448</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>1605.450994019795</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>1605.450994019795</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>1219.853496824231</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>623.8957358104983</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>506.3898323280031</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>402.5498738432881</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E42" t="n">
-        <v>297.8479401162253</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F42" t="n">
-        <v>204.2021097991295</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>110.1483380167335</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.21888774095488</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.21888774095488</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>64.21888774095488</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>766.7754168816126</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>766.7754168816126</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N42" t="n">
-        <v>1469.33194602227</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O42" t="n">
-        <v>1783.44056527485</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1783.44056527485</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1783.44056527485</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1865.459875359553</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1784.135627920807</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1642.255692218486</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1457.487496138122</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1252.514357277388</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1055.992980110606</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>892.5156338772687</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>752.8227452305611</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1139.95336730328</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="C43" t="n">
-        <v>967.9808041821959</v>
+        <v>845.0285345763751</v>
       </c>
       <c r="D43" t="n">
-        <v>804.6640313089666</v>
+        <v>681.7117617031458</v>
       </c>
       <c r="E43" t="n">
-        <v>638.4558254618202</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="F43" t="n">
-        <v>466.5940512363806</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G43" t="n">
-        <v>300.3370815306127</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H43" t="n">
-        <v>156.5408130387671</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I43" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>114.2635730032011</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K43" t="n">
-        <v>340.7911742090382</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>695.480495503459</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M43" t="n">
-        <v>1086.66629047371</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1464.157801349746</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1819.585930029509</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2110.18514195141</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q43" t="n">
-        <v>2237.185272192171</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R43" t="n">
-        <v>2190.146658879345</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S43" t="n">
-        <v>2020.01161139848</v>
+        <v>2232.637602493436</v>
       </c>
       <c r="T43" t="n">
-        <v>2020.01161139848</v>
+        <v>2232.637602493436</v>
       </c>
       <c r="U43" t="n">
-        <v>2020.01161139848</v>
+        <v>2232.637602493436</v>
       </c>
       <c r="V43" t="n">
-        <v>2020.01161139848</v>
+        <v>1950.926135101465</v>
       </c>
       <c r="W43" t="n">
-        <v>1799.026000879798</v>
+        <v>1676.073731273978</v>
       </c>
       <c r="X43" t="n">
-        <v>1556.462104325604</v>
+        <v>1433.509834719783</v>
       </c>
       <c r="Y43" t="n">
-        <v>1330.119336015346</v>
+        <v>1207.167066409525</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1332.089777391343</v>
+        <v>2533.780365848255</v>
       </c>
       <c r="C44" t="n">
-        <v>905.1890474046426</v>
+        <v>2106.879635861555</v>
       </c>
       <c r="D44" t="n">
-        <v>481.8964265896428</v>
+        <v>1683.587015046556</v>
       </c>
       <c r="E44" t="n">
-        <v>481.8964265896428</v>
+        <v>1257.610075194413</v>
       </c>
       <c r="F44" t="n">
-        <v>56.77224477904305</v>
+        <v>832.4858933838134</v>
       </c>
       <c r="G44" t="n">
-        <v>56.77224477904305</v>
+        <v>428.146830973262</v>
       </c>
       <c r="H44" t="n">
-        <v>56.77224477904305</v>
+        <v>130.2784524472968</v>
       </c>
       <c r="I44" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>56.77224477904305</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>56.77224477904305</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>759.3287739197008</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1461.885303060359</v>
+        <v>2994.337835136583</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.441832201016</v>
+        <v>2994.337835136583</v>
       </c>
       <c r="O44" t="n">
-        <v>2721.05590407025</v>
+        <v>3839.482485287395</v>
       </c>
       <c r="P44" t="n">
-        <v>2721.05590407025</v>
+        <v>4547.761764445323</v>
       </c>
       <c r="Q44" t="n">
-        <v>2721.05590407025</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="R44" t="n">
-        <v>2838.612238952152</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="S44" t="n">
-        <v>2838.612238952152</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="T44" t="n">
-        <v>2838.612238952152</v>
+        <v>4782.921672994139</v>
       </c>
       <c r="U44" t="n">
-        <v>2838.612238952152</v>
+        <v>4524.566763590551</v>
       </c>
       <c r="V44" t="n">
-        <v>2838.612238952152</v>
+        <v>4167.077348716801</v>
       </c>
       <c r="W44" t="n">
-        <v>2568.995410560235</v>
+        <v>3770.685999017148</v>
       </c>
       <c r="X44" t="n">
-        <v>2157.275411727982</v>
+        <v>3358.966000184895</v>
       </c>
       <c r="Y44" t="n">
-        <v>1751.938141682873</v>
+        <v>2953.628730139786</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>623.8957358104983</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>506.3898323280031</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>402.5498738432881</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E45" t="n">
-        <v>297.8479401162253</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F45" t="n">
-        <v>204.2021097991295</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>110.1483380167335</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>56.77224477904305</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K45" t="n">
-        <v>56.77224477904305</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L45" t="n">
-        <v>56.77224477904305</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M45" t="n">
-        <v>759.3287739197008</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="N45" t="n">
-        <v>1461.885303060359</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="O45" t="n">
-        <v>1865.459875359553</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P45" t="n">
-        <v>1865.459875359553</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>1865.459875359553</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1865.459875359553</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1784.135627920807</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1642.255692218486</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1457.487496138122</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1252.514357277388</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1055.992980110606</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>892.5156338772687</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>752.8227452305611</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1139.95336730328</v>
+        <v>324.1560104286543</v>
       </c>
       <c r="C46" t="n">
-        <v>967.9808041821959</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="D46" t="n">
-        <v>804.6640313089666</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="E46" t="n">
-        <v>638.4558254618202</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="F46" t="n">
-        <v>466.5940512363806</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="G46" t="n">
-        <v>300.3370815306127</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="H46" t="n">
-        <v>156.5408130387671</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I46" t="n">
-        <v>56.77224477904305</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>114.2635730032011</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K46" t="n">
-        <v>340.7911742090382</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>695.480495503459</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M46" t="n">
-        <v>1086.66629047371</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1464.157801349746</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1819.585930029509</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2110.18514195141</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q46" t="n">
-        <v>2237.185272192171</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R46" t="n">
-        <v>2237.185272192171</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S46" t="n">
-        <v>2237.185272192171</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T46" t="n">
-        <v>2237.185272192171</v>
+        <v>1819.976963724327</v>
       </c>
       <c r="U46" t="n">
-        <v>2237.185272192171</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V46" t="n">
-        <v>2073.878404707285</v>
+        <v>1258.08104783266</v>
       </c>
       <c r="W46" t="n">
-        <v>1799.026000879798</v>
+        <v>983.2286440051728</v>
       </c>
       <c r="X46" t="n">
-        <v>1556.462104325604</v>
+        <v>740.6647474509779</v>
       </c>
       <c r="Y46" t="n">
-        <v>1330.119336015346</v>
+        <v>514.3219791407199</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>453.3222319052608</v>
       </c>
       <c r="M2" t="n">
-        <v>300.4545145390017</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
@@ -8067,13 +8069,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>371.0330466836702</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>378.9827212526463</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>745.4176605328474</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L5" t="n">
-        <v>747.965102170661</v>
+        <v>453.3222319052608</v>
       </c>
       <c r="M5" t="n">
-        <v>233.4015791139144</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>747.2284215482694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
@@ -8298,22 +8300,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>732.1681464522677</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>732.7498402503661</v>
+        <v>550.5504466271778</v>
       </c>
       <c r="N6" t="n">
-        <v>147.0303414031287</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>546.3101998434626</v>
       </c>
       <c r="L8" t="n">
-        <v>747.965102170661</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M8" t="n">
-        <v>747.0843226374699</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>746.9326825724842</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O8" t="n">
-        <v>233.3612755705066</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8529,25 +8531,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>618.848654609434</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>181.3705437721216</v>
       </c>
       <c r="N9" t="n">
-        <v>730.9960879515797</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>268.1836549340421</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>745.4176605328474</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>599.5160590659947</v>
+        <v>522.3199738652141</v>
       </c>
       <c r="O11" t="n">
-        <v>747.0440190940622</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>747.2284215482694</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8769,19 +8771,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>430.0503169638325</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>732.7498402503661</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>730.9960879515797</v>
+        <v>949.8342934347921</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>745.4176605328474</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>719.2922512721542</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>746.9326825724842</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>747.0440190940622</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>108.6376593882851</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9003,28 +9005,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>430.0503169638325</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>730.9960879515797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>731.4239009428668</v>
+        <v>38.79925177260048</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9176,13 +9178,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>611.6066190166146</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116015</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9243,13 +9245,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>354.5569311593796</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,7 +9488,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685286</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
         <v>1121.661155963915</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,13 +9719,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>152.7047407943309</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9890,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>666.8880674041833</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10212,7 +10214,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>218.8019602116015</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10437,10 +10439,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125397</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239227</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10838,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10902,16 +10904,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>408.3532410469382</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>144.3038230288899</v>
       </c>
       <c r="K41" t="n">
-        <v>745.4176605328474</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>482.3622353123736</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>747.2284215482694</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11142,16 +11144,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>732.1681464522677</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685298</v>
       </c>
       <c r="N42" t="n">
-        <v>730.9960879515797</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>340.4533233106861</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11160,7 +11162,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>747.965102170661</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>747.0843226374699</v>
+        <v>932.9101273902618</v>
       </c>
       <c r="N44" t="n">
-        <v>746.9326825724842</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>599.6273955875727</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,16 +11384,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>732.7498402503661</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>730.9960879515797</v>
+        <v>850.4262850442695</v>
       </c>
       <c r="O45" t="n">
-        <v>430.8229728527214</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78.77218132631816</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>73.42412869296737</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>123.6039983032334</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>107.9720312369309</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>66.63040042470712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.7855238263079</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>18.44967133088807</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
     </row>
     <row r="23">
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>22.1301998828649</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,13 +24609,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>66.39245920468228</v>
       </c>
       <c r="F28" t="n">
-        <v>4.257766369549643</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>66.3924592046819</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>38.25708894998949</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>16.93792262753465</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>143.9581690688243</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>114.6701458615096</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.52700769166967</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25561,13 +25563,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>107.9720312369311</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>19.54237512105038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>167.6280780850589</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -25843,10 +25845,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>53.32812537571778</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>4.648410051339862</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,16 +25918,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>125.5067760946584</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>47.18544517283246</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>680013.3035727092</v>
+        <v>675177.5877591643</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>680013.3035727092</v>
+        <v>675177.5877591643</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>464167.5258346676</v>
+        <v>665166.9581534691</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>464167.5258346676</v>
+        <v>665166.9581534691</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>675497.8970431283</v>
+        <v>675497.8970431284</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>675497.8970431283</v>
+        <v>675497.8970431284</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>675497.8970431283</v>
+        <v>675497.8970431284</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>675497.8970431283</v>
+        <v>675497.8970431284</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>464167.5258346676</v>
+        <v>665166.958153469</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>464167.5258346676</v>
+        <v>665166.958153469</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>378587.734207256</v>
+        <v>378587.7342072561</v>
       </c>
       <c r="C2" t="n">
+        <v>378587.7342072562</v>
+      </c>
+      <c r="D2" t="n">
         <v>378587.7342072561</v>
       </c>
-      <c r="D2" t="n">
-        <v>378587.7342072562</v>
-      </c>
       <c r="E2" t="n">
-        <v>251042.501907504</v>
+        <v>359733.2891431419</v>
       </c>
       <c r="F2" t="n">
-        <v>251042.501907504</v>
+        <v>359733.2891431419</v>
       </c>
       <c r="G2" t="n">
         <v>365319.7620393408</v>
@@ -26338,22 +26340,22 @@
         <v>365319.7620393409</v>
       </c>
       <c r="K2" t="n">
-        <v>365319.7620393407</v>
+        <v>365319.7620393408</v>
       </c>
       <c r="L2" t="n">
-        <v>365319.7620393409</v>
+        <v>365319.7620393408</v>
       </c>
       <c r="M2" t="n">
-        <v>365319.7620393409</v>
+        <v>365319.762039341</v>
       </c>
       <c r="N2" t="n">
         <v>365319.7620393409</v>
       </c>
       <c r="O2" t="n">
-        <v>251042.501907504</v>
+        <v>359733.2891431419</v>
       </c>
       <c r="P2" t="n">
-        <v>251042.501907504</v>
+        <v>359733.2891431417</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
-        <v>49567.19967603217</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165611</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>155990.2311696563</v>
+        <v>7625.622083481291</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
-        <v>39486.74887272517</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056397</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>173998.4022791779</v>
+      </c>
+      <c r="C4" t="n">
         <v>173998.4022791778</v>
       </c>
-      <c r="C4" t="n">
-        <v>151855.2335054296</v>
-      </c>
       <c r="D4" t="n">
-        <v>151855.2335054296</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="E4" t="n">
-        <v>39857.35774790056</v>
+        <v>57174.45239980775</v>
       </c>
       <c r="F4" t="n">
-        <v>39857.35774790056</v>
+        <v>57174.45239980774</v>
       </c>
       <c r="G4" t="n">
+        <v>58064.51385187963</v>
+      </c>
+      <c r="H4" t="n">
         <v>58064.51385187964</v>
-      </c>
-      <c r="H4" t="n">
-        <v>58064.51385187963</v>
       </c>
       <c r="I4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="K4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="L4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187962</v>
       </c>
       <c r="O4" t="n">
-        <v>39857.35774790056</v>
+        <v>57174.45239980775</v>
       </c>
       <c r="P4" t="n">
-        <v>39857.35774790056</v>
+        <v>57174.45239980774</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>76774.50603207271</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="D5" t="n">
-        <v>76774.50603207271</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="E5" t="n">
-        <v>43146.90603207271</v>
+        <v>76058.47810803249</v>
       </c>
       <c r="F5" t="n">
-        <v>43146.90603207271</v>
+        <v>76058.47810803249</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>43146.90603207271</v>
+        <v>76058.47810803249</v>
       </c>
       <c r="P5" t="n">
-        <v>43146.90603207271</v>
+        <v>76058.47810803249</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49261.6525240872</v>
+        <v>-49261.65252408711</v>
       </c>
       <c r="C6" t="n">
-        <v>100390.7949937216</v>
+        <v>137143.0808906503</v>
       </c>
       <c r="D6" t="n">
-        <v>149957.9946697539</v>
+        <v>137143.0808906501</v>
       </c>
       <c r="E6" t="n">
-        <v>168038.2381275307</v>
+        <v>19068.07101874059</v>
       </c>
       <c r="F6" t="n">
-        <v>168038.2381275308</v>
+        <v>226500.3586353017</v>
       </c>
       <c r="G6" t="n">
-        <v>73514.95482937516</v>
+        <v>221879.5639155502</v>
       </c>
       <c r="H6" t="n">
         <v>229505.1859990314</v>
@@ -26543,25 +26545,25 @@
         <v>229505.1859990314</v>
       </c>
       <c r="J6" t="n">
-        <v>83971.516064215</v>
+        <v>83971.51606421507</v>
       </c>
       <c r="K6" t="n">
-        <v>190018.4371263062</v>
+        <v>229505.1859990315</v>
       </c>
       <c r="L6" t="n">
+        <v>229505.1859990315</v>
+      </c>
+      <c r="M6" t="n">
+        <v>56374.69479339197</v>
+      </c>
+      <c r="N6" t="n">
         <v>229505.1859990316</v>
       </c>
-      <c r="M6" t="n">
-        <v>229505.1859990315</v>
-      </c>
-      <c r="N6" t="n">
-        <v>229505.1859990315</v>
-      </c>
       <c r="O6" t="n">
-        <v>168038.2381275308</v>
+        <v>226500.3586353017</v>
       </c>
       <c r="P6" t="n">
-        <v>168038.2381275307</v>
+        <v>226500.3586353014</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>709.6530597380381</v>
+        <v>556.227813115594</v>
       </c>
       <c r="D4" t="n">
-        <v>709.6530597380381</v>
+        <v>556.227813115594</v>
       </c>
       <c r="E4" t="n">
-        <v>709.6530597380381</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="F4" t="n">
-        <v>709.6530597380381</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>709.6530597380381</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="P4" t="n">
-        <v>709.6530597380381</v>
+        <v>1250.961810987377</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>153.425246622444</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.7339978717825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>569.1308578348187</v>
+        <v>27.82210658548001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
-        <v>153.425246622444</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
-        <v>153.425246622444</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>569.1308578348187</v>
+        <v>27.82210658548001</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>80.80383915666056</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>198.7036757366575</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>47.1854451728324</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>163.7887810877119</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27619,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>49.98187687277385</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27676,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>342.9323154271054</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>41.47873147163466</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>166.1646056017416</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>383.2660976947096</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>155.0921821320684</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27916,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>44.52506253001704</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>86.37998250393261</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="M2" t="n">
-        <v>263.0232516395698</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
@@ -34787,13 +34789,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>349.6900184701286</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>357.2118800478177</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>709.6530597380381</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L5" t="n">
-        <v>709.6530597380381</v>
+        <v>415.0101894726379</v>
       </c>
       <c r="M5" t="n">
-        <v>195.9703162144825</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
@@ -35018,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>709.6530597380381</v>
+        <v>527.4536661148499</v>
       </c>
       <c r="N6" t="n">
-        <v>125.687313189587</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>510.5455990486532</v>
       </c>
       <c r="L8" t="n">
-        <v>709.6530597380381</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M8" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>709.6530597380381</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O8" t="n">
-        <v>195.9703162144825</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>596.4494207761006</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="N9" t="n">
-        <v>709.6530597380381</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>246.4128137292134</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>562.2364362315486</v>
+        <v>485.0403510307681</v>
       </c>
       <c r="O11" t="n">
-        <v>709.6530597380381</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>709.6530597380381</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>407.6510831304992</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>709.6530597380381</v>
+        <v>928.4912652212505</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>709.6530597380381</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>680.9802088395313</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>709.6530597380381</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>709.6530597380381</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>71.06229757805384</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>407.6510831304992</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>709.6530597380381</v>
+        <v>17.02841056777183</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,13 +35898,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>574.2156596605904</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013702</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,7 +36208,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562006</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
         <v>1100.318127750374</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>130.1896540801013</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36610,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>643.7912868918553</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>181.2265984013702</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,10 +37159,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>760.3041339439036</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799168</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291133</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37558,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>385.2564605346102</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>114.8838635433034</v>
       </c>
       <c r="K41" t="n">
-        <v>709.6530597380381</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>444.9309724129417</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>709.6530597380381</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="N42" t="n">
-        <v>709.6530597380381</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>317.2814335884639</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>709.6530597380381</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>709.6530597380381</v>
+        <v>895.47886449083</v>
       </c>
       <c r="N44" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>562.2364362315486</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>709.6530597380381</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>709.6530597380381</v>
+        <v>829.0832568307279</v>
       </c>
       <c r="O45" t="n">
-        <v>407.6510831304992</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1209596.788444327</v>
+        <v>1208878.798329467</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760725</v>
+        <v>698313.6830760739</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7779755.328291051</v>
+        <v>7779755.328291049</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>333.5940869022753</v>
       </c>
       <c r="C2" t="n">
-        <v>341.8278835301723</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -676,7 +676,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -727,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>123.0673923170407</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>154.6426417237851</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>49.49512077555119</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146.7855775533103</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>25.13775189891268</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>30.59709888020254</v>
       </c>
       <c r="C8" t="n">
-        <v>39.36562499212323</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1150,7 +1150,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>120.0693374786931</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>260.4446813871638</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1375,10 +1375,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>311.0876633699169</v>
       </c>
       <c r="E11" t="n">
-        <v>348.2930417606536</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100375</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>123.2089098739604</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1621,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>292.3236405495149</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>145.2921865528443</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1779,7 +1779,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100375</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>33.51529311720289</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1897,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2010,10 +2010,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>11.12043047005107</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2140,7 +2140,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250128</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>106.858786719141</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2614,7 +2614,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>353.9145207250128</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>98.15366458399269</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2952,19 +2952,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>103.8603782851912</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>49.36794445217221</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3192,19 +3192,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>125.4203831793925</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3666,16 +3666,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>4.322062388456432</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T41" t="n">
-        <v>110.7442840088821</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>4.322062388456207</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.8056189209976128</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>29.89949249262364</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>123.0673923170407</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>487.2469754669709</v>
+        <v>462.6949895047144</v>
       </c>
       <c r="C2" t="n">
-        <v>141.9662850324534</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D2" t="n">
-        <v>122.7140682578577</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E2" t="n">
-        <v>100.7775324461193</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F2" t="n">
-        <v>79.69375467592363</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
         <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924752</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L2" t="n">
-        <v>455.358312627159</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
-        <v>1006.023847611597</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596035</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2120.543958335516</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V2" t="n">
-        <v>2120.543958335516</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W2" t="n">
-        <v>1724.152608635863</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X2" t="n">
-        <v>1312.432609803611</v>
+        <v>800.9555796531324</v>
       </c>
       <c r="Y2" t="n">
-        <v>907.0953397585009</v>
+        <v>799.6587136484268</v>
       </c>
     </row>
     <row r="3">
@@ -4397,37 +4397,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L3" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M3" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="N3" t="n">
-        <v>866.8612493132766</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="O3" t="n">
-        <v>1417.526784297715</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
         <v>1771.166545545054</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5772905989117</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C4" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D4" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="E4" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="F4" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894584</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394888</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002917</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754302</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212353</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.7432593109774</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1746.091355883837</v>
+        <v>568.8670150191532</v>
       </c>
       <c r="C5" t="n">
-        <v>1319.190625897137</v>
+        <v>546.0066890728574</v>
       </c>
       <c r="D5" t="n">
-        <v>1299.938409122541</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E5" t="n">
-        <v>873.9614692703988</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>448.8372874597989</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336855</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1006.023847611597</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596035</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>2107.354917580473</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580473</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462376</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.91618097192</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X5" t="n">
-        <v>2167.236586180072</v>
+        <v>1130.408973674147</v>
       </c>
       <c r="Y5" t="n">
-        <v>2165.939720175366</v>
+        <v>725.0717036290372</v>
       </c>
     </row>
     <row r="6">
@@ -4634,40 +4634,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M6" t="n">
-        <v>838.3748437825399</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825399</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825399</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.474999156118</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C7" t="n">
-        <v>310.474999156118</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D7" t="n">
-        <v>310.474999156118</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E7" t="n">
-        <v>144.2667933089716</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2667933089716</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G7" t="n">
         <v>144.2667933089716</v>
@@ -4722,7 +4722,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>2199.519583877615</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1917.808116485644</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1642.955712658157</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>1400.391816103962</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2095.759537287836</v>
+        <v>2185.028631180769</v>
       </c>
       <c r="C8" t="n">
-        <v>2055.996279720035</v>
+        <v>1758.12790119407</v>
       </c>
       <c r="D8" t="n">
-        <v>1632.703658905035</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E8" t="n">
-        <v>1206.726719052893</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F8" t="n">
-        <v>781.6025372422929</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
         <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>549.9383681074142</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L8" t="n">
-        <v>1100.603903091852</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M8" t="n">
-        <v>1100.603903091852</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N8" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>2112.864363543668</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>2111.567497538962</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="9">
@@ -4871,40 +4871,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336855</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336855</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608812</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>839.1397001855339</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C10" t="n">
-        <v>667.1671370644499</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D10" t="n">
-        <v>503.8503641912206</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>337.6421583440741</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>165.7803841186345</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924752</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4989,25 +4989,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V10" t="n">
-        <v>1773.064737589539</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W10" t="n">
-        <v>1498.212333762052</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X10" t="n">
-        <v>1255.648437207858</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.3056688976</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721396</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>2002.512341734696</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1579.219720919696</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>1227.408567626107</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>802.2843858155067</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>397.9453234049553</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
         <v>100.0769448789901</v>
@@ -5044,49 +5044,49 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1392.305451315162</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="M11" t="n">
-        <v>2396.59155273422</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N11" t="n">
-        <v>2876.781500254681</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>3721.926150405493</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4430.205429563421</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067604</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>5003.847243949506</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>4899.479949822647</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.554378867279</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.199469463691</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589941</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890288</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058036</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012926</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5102,10 +5102,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
         <v>247.5068098990765</v>
@@ -5117,31 +5117,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>100.0769448789901</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="M12" t="n">
-        <v>100.0769448789901</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="N12" t="n">
-        <v>1019.283297448028</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="O12" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>1083.489499143503</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>911.5169360224189</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="E13" t="n">
-        <v>681.7605255617672</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387142</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
         <v>1129.970990573657</v>
@@ -5217,34 +5217,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2280.489972292119</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>2280.489972292119</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>2280.489972292119</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.183104807232</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="W13" t="n">
-        <v>1842.330700979745</v>
+        <v>1742.562132720021</v>
       </c>
       <c r="X13" t="n">
-        <v>1599.766804425551</v>
+        <v>1499.998236165826</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.424036115293</v>
+        <v>1273.655467855569</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2429.413071721396</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C14" t="n">
-        <v>2002.512341734696</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D14" t="n">
-        <v>1579.219720919696</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.242781067554</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F14" t="n">
-        <v>728.1185992569538</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G14" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H14" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
@@ -5284,46 +5284,46 @@
         <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>2107.813759290661</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="M14" t="n">
-        <v>3112.09986070972</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N14" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
-        <v>4933.495569347233</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>5003.847243949506</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>5003.847243949506</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>5003.847243949506</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822647</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867279</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.199469463691</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589941</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890288</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058036</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y14" t="n">
-        <v>2849.261436012926</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="15">
@@ -5339,10 +5339,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
         <v>247.5068098990765</v>
@@ -5354,31 +5354,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>371.7744341585812</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L15" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M15" t="n">
-        <v>1427.760972134626</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N15" t="n">
-        <v>1427.760972134626</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O15" t="n">
-        <v>1427.760972134626</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P15" t="n">
-        <v>1444.619098596721</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.258067403227</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.285504282143</v>
+        <v>845.0285345763751</v>
       </c>
       <c r="D16" t="n">
-        <v>847.9687314089136</v>
+        <v>681.7117617031458</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7605255617672</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="F16" t="n">
-        <v>509.8987513363276</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G16" t="n">
         <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387142</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
         <v>1129.970990573657</v>
@@ -5454,34 +5454,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2280.489972292119</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2280.489972292119</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T16" t="n">
-        <v>2280.489972292119</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U16" t="n">
-        <v>2280.489972292119</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.183104807232</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="W16" t="n">
-        <v>1842.330700979745</v>
+        <v>1676.073731273978</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.766804425551</v>
+        <v>1433.509834719783</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.424036115293</v>
+        <v>1207.167066409525</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4659.050190787243</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>528.0267489559496</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M18" t="n">
-        <v>1021.509065974867</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>775.6620294727279</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C19" t="n">
-        <v>603.6894663516439</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D19" t="n">
-        <v>440.3726934784146</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="F19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5703,22 +5703,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>2271.4829827684</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1991.298534268705</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1709.587066876733</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.734663049246</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.170766495052</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y19" t="n">
-        <v>965.8279981847936</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,19 +5740,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5761,28 +5761,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808981</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357521</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886056</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>2001.004273426986</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1726.151869599499</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1483.587973045304</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,19 +5977,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
         <v>1180.414480198223</v>
@@ -5998,28 +5998,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710918</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710918</v>
+        <v>528.0267489559496</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710918</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>4025.820723818556</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291426</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291426</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291426</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808981</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357521</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886056</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F25" t="n">
-        <v>512.124519863166</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6177,22 +6177,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>2001.004273426986</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>338.650469582768</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6481,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,19 +6539,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3205.840321740789</v>
+        <v>603.7382302102653</v>
       </c>
       <c r="C31" t="n">
-        <v>3100.930848725444</v>
+        <v>603.7382302102653</v>
       </c>
       <c r="D31" t="n">
-        <v>3100.930848725444</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E31" t="n">
-        <v>2934.722642878298</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878298</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4945.000622810561</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>4701.661275036461</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>4421.476826536766</v>
+        <v>1819.374735006242</v>
       </c>
       <c r="V31" t="n">
-        <v>4139.765359144794</v>
+        <v>1537.663267614271</v>
       </c>
       <c r="W31" t="n">
-        <v>3864.912955317307</v>
+        <v>1262.810863786784</v>
       </c>
       <c r="X31" t="n">
-        <v>3622.349058763113</v>
+        <v>1020.246967232589</v>
       </c>
       <c r="Y31" t="n">
-        <v>3396.006290452855</v>
+        <v>793.904198922331</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3901.026184387725</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3729.053621266641</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3565.736848393412</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3399.528642546265</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3227.666868320826</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3061.409898615058</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291426</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>5115.135670291426</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4834.951221791731</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4834.951221791731</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>4560.098817964244</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>4317.534921410049</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>4091.192153099791</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
         <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.8188681099</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7025,16 +7025,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>651.5495334576507</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076927</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982686</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.856391133499</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7262,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3158.801708427963</v>
+        <v>616.7597400424195</v>
       </c>
       <c r="C40" t="n">
-        <v>2986.829145306879</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="D40" t="n">
-        <v>2934.722642878298</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="E40" t="n">
-        <v>2934.722642878298</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F40" t="n">
-        <v>2934.722642878298</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497734</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723634</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.438213223939</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V40" t="n">
-        <v>4092.726745831968</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W40" t="n">
-        <v>3817.874342004481</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X40" t="n">
-        <v>3575.310445450286</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y40" t="n">
-        <v>3348.967677140028</v>
+        <v>806.9257087544852</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>213.8119697868605</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>929.3202777623595</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1858.945325381636</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2863.231426800694</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>3839.482485287395</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>3839.482485287395</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>4547.761764445323</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949506</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>5003.847243949506</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822647</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T41" t="n">
-        <v>4787.617036682362</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U41" t="n">
-        <v>4529.262127278774</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>4171.772712405023</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.38136270537</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.661363873117</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7472,10 +7472,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
         <v>247.5068098990765</v>
@@ -7499,13 +7499,13 @@
         <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>819.4496289866299</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N42" t="n">
-        <v>1908.7645754595</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="O42" t="n">
-        <v>1908.7645754595</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P42" t="n">
         <v>1908.7645754595</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1017.001097697459</v>
+        <v>614.5339715155808</v>
       </c>
       <c r="C43" t="n">
-        <v>845.0285345763751</v>
+        <v>442.5614083944968</v>
       </c>
       <c r="D43" t="n">
-        <v>681.7117617031458</v>
+        <v>442.5614083944968</v>
       </c>
       <c r="E43" t="n">
-        <v>515.5035558559994</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F43" t="n">
-        <v>343.6417816305598</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G43" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>199.8455131387142</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
         <v>1129.970990573657</v>
@@ -7587,34 +7587,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2232.637602493436</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T43" t="n">
-        <v>2232.637602493436</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="U43" t="n">
-        <v>2232.637602493436</v>
+        <v>1830.170476311557</v>
       </c>
       <c r="V43" t="n">
-        <v>1950.926135101465</v>
+        <v>1548.459008919586</v>
       </c>
       <c r="W43" t="n">
-        <v>1676.073731273978</v>
+        <v>1273.606605092099</v>
       </c>
       <c r="X43" t="n">
-        <v>1433.509834719783</v>
+        <v>1031.042708537904</v>
       </c>
       <c r="Y43" t="n">
-        <v>1207.167066409525</v>
+        <v>804.6999402276465</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2533.780365848255</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>2106.879635861555</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1683.587015046556</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>1257.610075194413</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>832.4858933838134</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>428.146830973262</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>130.2784524472968</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
@@ -7657,43 +7657,43 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2994.337835136583</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>2994.337835136583</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>3839.482485287395</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>4547.761764445323</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>5003.847243949506</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>5003.847243949506</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>5003.847243949506</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>4782.921672994139</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U44" t="n">
-        <v>4524.566763590551</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
-        <v>4167.077348716801</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>3770.685999017148</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>3358.966000184895</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2953.628730139786</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7709,10 +7709,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
         <v>247.5068098990765</v>
@@ -7727,22 +7727,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>371.7744341585812</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L45" t="n">
-        <v>371.7744341585812</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="M45" t="n">
-        <v>371.7744341585812</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N45" t="n">
-        <v>1192.566858421002</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O45" t="n">
-        <v>1192.566858421002</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
         <v>1908.7645754595</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>324.1560104286543</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C46" t="n">
-        <v>199.8455131387142</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>199.8455131387142</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>199.8455131387142</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
-        <v>199.8455131387142</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>199.8455131387142</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387142</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
         <v>1129.970990573657</v>
@@ -7824,34 +7824,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498427</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T46" t="n">
-        <v>1819.976963724327</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U46" t="n">
-        <v>1539.792515224631</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V46" t="n">
-        <v>1258.08104783266</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W46" t="n">
-        <v>983.2286440051728</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X46" t="n">
-        <v>740.6647474509779</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y46" t="n">
-        <v>514.3219791407199</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>453.3222319052608</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150258</v>
+        <v>547.9768619480851</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8069,16 +8069,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291356</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378162</v>
+        <v>178.4700015426657</v>
       </c>
       <c r="P3" t="n">
-        <v>378.9827212526463</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104033</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>453.3222319052608</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150258</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500401</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8291,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>550.5504466271778</v>
+        <v>372.7867989824566</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8312,13 +8312,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,16 +8455,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>546.3101998434626</v>
+        <v>569.51856287543</v>
       </c>
       <c r="L8" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500401</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
@@ -8473,10 +8473,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3705437721216</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204227</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,16 +8692,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>767.069374108112</v>
       </c>
       <c r="N11" t="n">
-        <v>522.3199738652141</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265373</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>949.8342934347921</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,10 +8932,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>767.069374108112</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>108.6376593882851</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9023,13 +9023,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>38.79925177260048</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>611.6066190166146</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>170.459742225877</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>791.8999401147988</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9500,10 +9500,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>43.1919409183301</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>170.459742225877</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9737,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>268.1550667350203</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9974,10 +9974,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>43.1919409183301</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>224.2932485068573</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>783.4760236661258</v>
+        <v>248.2838641991609</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10588,16 +10588,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>586.4197136125397</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10673,19 +10673,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>590.5593685239227</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10843,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>656.0343783945846</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>144.3038230288899</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,13 +11068,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11083,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11147,16 +11147,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>749.7358553685298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11305,10 +11305,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>932.9101273902618</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,25 +11375,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>354.5569311593796</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>850.4262850442695</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23263,10 +23263,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="E11" t="n">
-        <v>73.42412869296737</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080138</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>148.8949699152517</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>107.9720312369309</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>73.42412869296891</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080138</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>238.5885866720092</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>65.23940003763306</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23943,7 +23943,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>229.7855238263079</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>68.15019490184623</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>66.39245920468228</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24651,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>66.3924592046819</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>228.0146595625266</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>16.93792262753465</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25125,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>160.2240614002185</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T41" t="n">
-        <v>107.9720312369311</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>160.2240614002188</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>167.6280780850589</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.648410051339862</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>47.18544517283246</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26034,7 +26034,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26043,7 +26043,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>665166.9581534691</v>
+        <v>665166.9581534688</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>665166.9581534691</v>
+        <v>665166.958153469</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>675497.8970431284</v>
+        <v>675497.8970431283</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>675497.8970431284</v>
+        <v>675497.8970431283</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>675497.8970431284</v>
+        <v>675497.8970431283</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>675497.8970431284</v>
+        <v>675497.8970431283</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>675497.8970431284</v>
+        <v>675497.8970431283</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>665166.958153469</v>
+        <v>665166.9581534688</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>665166.958153469</v>
+        <v>665166.9581534688</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>378587.7342072561</v>
+        <v>378587.7342072558</v>
       </c>
       <c r="C2" t="n">
-        <v>378587.7342072562</v>
+        <v>378587.7342072559</v>
       </c>
       <c r="D2" t="n">
-        <v>378587.7342072561</v>
+        <v>378587.7342072559</v>
       </c>
       <c r="E2" t="n">
-        <v>359733.2891431419</v>
+        <v>359733.2891431418</v>
       </c>
       <c r="F2" t="n">
         <v>359733.2891431419</v>
@@ -26334,28 +26334,28 @@
         <v>365319.7620393407</v>
       </c>
       <c r="I2" t="n">
+        <v>365319.7620393408</v>
+      </c>
+      <c r="J2" t="n">
         <v>365319.7620393407</v>
       </c>
-      <c r="J2" t="n">
-        <v>365319.7620393409</v>
-      </c>
       <c r="K2" t="n">
-        <v>365319.7620393408</v>
+        <v>365319.7620393406</v>
       </c>
       <c r="L2" t="n">
-        <v>365319.7620393408</v>
+        <v>365319.7620393407</v>
       </c>
       <c r="M2" t="n">
-        <v>365319.762039341</v>
+        <v>365319.7620393407</v>
       </c>
       <c r="N2" t="n">
-        <v>365319.7620393409</v>
+        <v>365319.7620393407</v>
       </c>
       <c r="O2" t="n">
         <v>359733.2891431419</v>
       </c>
       <c r="P2" t="n">
-        <v>359733.2891431417</v>
+        <v>359733.2891431418</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207432.2876165611</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7625.622083481291</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>173130.4912056397</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>173998.4022791778</v>
+      </c>
+      <c r="C4" t="n">
         <v>173998.4022791779</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>173998.4022791778</v>
       </c>
-      <c r="D4" t="n">
-        <v>173998.4022791779</v>
-      </c>
       <c r="E4" t="n">
-        <v>57174.45239980775</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="F4" t="n">
-        <v>57174.45239980774</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="H4" t="n">
         <v>58064.51385187964</v>
@@ -26441,10 +26441,10 @@
         <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="K4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
         <v>58064.51385187964</v>
@@ -26453,13 +26453,13 @@
         <v>58064.51385187964</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187962</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
-        <v>57174.45239980775</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="P4" t="n">
-        <v>57174.45239980774</v>
+        <v>57174.45239980773</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>76058.47810803249</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>76058.47810803249</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>76058.47810803249</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>76058.47810803249</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49261.65252408711</v>
+        <v>-49261.6525240874</v>
       </c>
       <c r="C6" t="n">
-        <v>137143.0808906503</v>
+        <v>137143.0808906499</v>
       </c>
       <c r="D6" t="n">
-        <v>137143.0808906501</v>
+        <v>137143.08089065</v>
       </c>
       <c r="E6" t="n">
-        <v>19068.07101874059</v>
+        <v>18995.55392234026</v>
       </c>
       <c r="F6" t="n">
-        <v>226500.3586353017</v>
+        <v>226427.8415389013</v>
       </c>
       <c r="G6" t="n">
-        <v>221879.5639155502</v>
+        <v>221828.5332533657</v>
       </c>
       <c r="H6" t="n">
-        <v>229505.1859990314</v>
+        <v>229454.1553368471</v>
       </c>
       <c r="I6" t="n">
-        <v>229505.1859990314</v>
+        <v>229454.1553368472</v>
       </c>
       <c r="J6" t="n">
-        <v>83971.51606421507</v>
+        <v>83920.48540203056</v>
       </c>
       <c r="K6" t="n">
-        <v>229505.1859990315</v>
+        <v>229454.155336847</v>
       </c>
       <c r="L6" t="n">
-        <v>229505.1859990315</v>
+        <v>229454.1553368471</v>
       </c>
       <c r="M6" t="n">
-        <v>56374.69479339197</v>
+        <v>56323.66413120758</v>
       </c>
       <c r="N6" t="n">
-        <v>229505.1859990316</v>
+        <v>229454.1553368471</v>
       </c>
       <c r="O6" t="n">
-        <v>226500.3586353017</v>
+        <v>226427.8415389012</v>
       </c>
       <c r="P6" t="n">
-        <v>226500.3586353014</v>
+        <v>226427.8415389012</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>694.7339978717825</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.82210658548001</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717825</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717825</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.82210658548001</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>82.05579374633948</v>
       </c>
       <c r="C2" t="n">
-        <v>80.80383915666056</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>47.1854451728324</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -27557,7 +27557,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>47.18544517283196</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>261.0072389248296</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>342.9323154271054</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.47873147163466</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>252.2448521157861</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>385.0527817684122</v>
       </c>
       <c r="C8" t="n">
-        <v>383.2660976947096</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>44.52506253001704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -28061,7 +28061,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -28070,7 +28070,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>18.44967133088761</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>415.0101894726378</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>556.227813115594</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="N2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>556.227813115594</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="P3" t="n">
-        <v>357.2118800478177</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>415.0101894726379</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35011,19 +35011,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>527.4536661148499</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>510.5455990486532</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="L8" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35193,10 +35193,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>158.2737632597936</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.227813115594</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>729.6381112086802</v>
       </c>
       <c r="N11" t="n">
-        <v>485.0403510307681</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>928.4912652212505</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,10 +35652,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>729.6381112086802</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>71.06229757805384</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>17.02841056777183</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>574.2156596605904</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>148.0605083925437</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>148.0605083925437</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>238.7351072494338</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>188.528647712048</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>760.3041339439036</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>548.1076711799168</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37393,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>554.7947677291133</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37563,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>114.8838635433034</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,13 +37788,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37803,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>895.47886449083</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>829.0832568307279</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
